--- a/livingdex.xlsx
+++ b/livingdex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="1046">
   <si>
     <t>#</t>
   </si>
@@ -2582,6 +2582,22 @@
   </si>
   <si>
     <t>Boltund</t>
+  </si>
+  <si>
+    <t>Brilliant Stars
+#TG13</t>
+  </si>
+  <si>
+    <t>Sword &amp; Shield Promos
+#SWSH219</t>
+  </si>
+  <si>
+    <t>Temporal Forces
+#59</t>
+  </si>
+  <si>
+    <t>Battle Styles
+#53</t>
   </si>
   <si>
     <t>Rolycoly</t>
@@ -20357,13 +20373,34 @@
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/836/1.png", 2)</f>
         <v>0</v>
       </c>
+      <c r="D2507">
+        <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/836/2.png", 2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2507">
+        <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/836/3.png", 2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2507">
+        <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/836/4.png", 2)</f>
+        <v>0</v>
+      </c>
       <c r="G2507" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2508" spans="1:7">
       <c r="C2508" s="4" t="s">
-        <v>20</v>
+        <v>853</v>
+      </c>
+      <c r="D2508" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E2508" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="F2508" s="4" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="2510" spans="1:7" ht="264" customHeight="1">
@@ -20371,7 +20408,7 @@
         <v>837</v>
       </c>
       <c r="B2510" s="3" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C2510">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/837/1.png", 2)</f>
@@ -20391,7 +20428,7 @@
         <v>838</v>
       </c>
       <c r="B2513" s="3" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C2513">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/838/1.png", 2)</f>
@@ -20411,7 +20448,7 @@
         <v>839</v>
       </c>
       <c r="B2516" s="3" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C2516">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/839/1.png", 2)</f>
@@ -20431,7 +20468,7 @@
         <v>840</v>
       </c>
       <c r="B2519" s="3" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C2519">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/840/1.png", 2)</f>
@@ -20451,7 +20488,7 @@
         <v>841</v>
       </c>
       <c r="B2522" s="3" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C2522">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/841/1.png", 2)</f>
@@ -20471,7 +20508,7 @@
         <v>842</v>
       </c>
       <c r="B2525" s="3" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C2525">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/842/1.png", 2)</f>
@@ -20491,7 +20528,7 @@
         <v>843</v>
       </c>
       <c r="B2528" s="3" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C2528">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/843/1.png", 2)</f>
@@ -20511,7 +20548,7 @@
         <v>844</v>
       </c>
       <c r="B2531" s="3" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C2531">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/844/1.png", 2)</f>
@@ -20531,7 +20568,7 @@
         <v>845</v>
       </c>
       <c r="B2534" s="3" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C2534">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/845/1.png", 2)</f>
@@ -20551,7 +20588,7 @@
         <v>846</v>
       </c>
       <c r="B2537" s="3" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C2537">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/846/1.png", 2)</f>
@@ -20571,7 +20608,7 @@
         <v>847</v>
       </c>
       <c r="B2540" s="3" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C2540">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/847/1.png", 2)</f>
@@ -20591,7 +20628,7 @@
         <v>848</v>
       </c>
       <c r="B2543" s="3" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C2543">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/848/1.png", 2)</f>
@@ -20611,7 +20648,7 @@
         <v>849</v>
       </c>
       <c r="B2546" s="3" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C2546">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/849/1.png", 2)</f>
@@ -20631,7 +20668,7 @@
         <v>850</v>
       </c>
       <c r="B2549" s="3" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C2549">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/850/1.png", 2)</f>
@@ -20651,7 +20688,7 @@
         <v>851</v>
       </c>
       <c r="B2552" s="3" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C2552">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/851/1.png", 2)</f>
@@ -20671,7 +20708,7 @@
         <v>852</v>
       </c>
       <c r="B2555" s="3" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C2555">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/852/1.png", 2)</f>
@@ -20691,7 +20728,7 @@
         <v>853</v>
       </c>
       <c r="B2558" s="3" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="C2558">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/853/1.png", 2)</f>
@@ -20711,7 +20748,7 @@
         <v>854</v>
       </c>
       <c r="B2561" s="3" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C2561">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/854/1.png", 2)</f>
@@ -20731,7 +20768,7 @@
         <v>855</v>
       </c>
       <c r="B2564" s="3" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="C2564">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/855/1.png", 2)</f>
@@ -20751,7 +20788,7 @@
         <v>856</v>
       </c>
       <c r="B2567" s="3" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C2567">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/856/1.png", 2)</f>
@@ -20771,7 +20808,7 @@
         <v>857</v>
       </c>
       <c r="B2570" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="C2570">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/857/1.png", 2)</f>
@@ -20791,7 +20828,7 @@
         <v>858</v>
       </c>
       <c r="B2573" s="3" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C2573">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/858/1.png", 2)</f>
@@ -20811,7 +20848,7 @@
         <v>859</v>
       </c>
       <c r="B2576" s="3" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C2576">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/859/1.png", 2)</f>
@@ -20831,7 +20868,7 @@
         <v>860</v>
       </c>
       <c r="B2579" s="3" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C2579">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/860/1.png", 2)</f>
@@ -20851,7 +20888,7 @@
         <v>861</v>
       </c>
       <c r="B2582" s="3" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="C2582">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/861/1.png", 2)</f>
@@ -20871,7 +20908,7 @@
         <v>862</v>
       </c>
       <c r="B2585" s="3" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C2585">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/862/1.png", 2)</f>
@@ -20891,7 +20928,7 @@
         <v>863</v>
       </c>
       <c r="B2588" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C2588">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/863/1.png", 2)</f>
@@ -20911,7 +20948,7 @@
         <v>864</v>
       </c>
       <c r="B2591" s="3" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C2591">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/864/1.png", 2)</f>
@@ -20931,7 +20968,7 @@
         <v>865</v>
       </c>
       <c r="B2594" s="3" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C2594">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/865/1.png", 2)</f>
@@ -20951,7 +20988,7 @@
         <v>866</v>
       </c>
       <c r="B2597" s="3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C2597">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/866/1.png", 2)</f>
@@ -20971,7 +21008,7 @@
         <v>867</v>
       </c>
       <c r="B2600" s="3" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="C2600">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/867/1.png", 2)</f>
@@ -20991,7 +21028,7 @@
         <v>868</v>
       </c>
       <c r="B2603" s="3" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C2603">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/868/1.png", 2)</f>
@@ -21011,7 +21048,7 @@
         <v>869</v>
       </c>
       <c r="B2606" s="3" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C2606">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/869/1.png", 2)</f>
@@ -21031,7 +21068,7 @@
         <v>870</v>
       </c>
       <c r="B2609" s="3" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C2609">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/870/1.png", 2)</f>
@@ -21051,7 +21088,7 @@
         <v>871</v>
       </c>
       <c r="B2612" s="3" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="C2612">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/871/1.png", 2)</f>
@@ -21071,7 +21108,7 @@
         <v>872</v>
       </c>
       <c r="B2615" s="3" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C2615">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/872/1.png", 2)</f>
@@ -21091,7 +21128,7 @@
         <v>873</v>
       </c>
       <c r="B2618" s="3" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="C2618">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/873/1.png", 2)</f>
@@ -21111,7 +21148,7 @@
         <v>874</v>
       </c>
       <c r="B2621" s="3" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C2621">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/874/1.png", 2)</f>
@@ -21131,7 +21168,7 @@
         <v>875</v>
       </c>
       <c r="B2624" s="3" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="C2624">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/875/1.png", 2)</f>
@@ -21151,7 +21188,7 @@
         <v>876</v>
       </c>
       <c r="B2627" s="3" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C2627">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/876/1.png", 2)</f>
@@ -21171,7 +21208,7 @@
         <v>877</v>
       </c>
       <c r="B2630" s="3" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="C2630">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/877/1.png", 2)</f>
@@ -21191,7 +21228,7 @@
         <v>878</v>
       </c>
       <c r="B2633" s="3" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C2633">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/878/1.png", 2)</f>
@@ -21211,7 +21248,7 @@
         <v>879</v>
       </c>
       <c r="B2636" s="3" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C2636">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/879/1.png", 2)</f>
@@ -21231,7 +21268,7 @@
         <v>880</v>
       </c>
       <c r="B2639" s="3" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C2639">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/880/1.png", 2)</f>
@@ -21251,7 +21288,7 @@
         <v>881</v>
       </c>
       <c r="B2642" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="C2642">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/881/1.png", 2)</f>
@@ -21271,7 +21308,7 @@
         <v>882</v>
       </c>
       <c r="B2645" s="3" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C2645">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/882/1.png", 2)</f>
@@ -21291,7 +21328,7 @@
         <v>883</v>
       </c>
       <c r="B2648" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="C2648">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/883/1.png", 2)</f>
@@ -21311,7 +21348,7 @@
         <v>884</v>
       </c>
       <c r="B2651" s="3" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C2651">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/884/1.png", 2)</f>
@@ -21331,7 +21368,7 @@
         <v>885</v>
       </c>
       <c r="B2654" s="3" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C2654">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/885/1.png", 2)</f>
@@ -21351,7 +21388,7 @@
         <v>886</v>
       </c>
       <c r="B2657" s="3" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C2657">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/886/1.png", 2)</f>
@@ -21371,7 +21408,7 @@
         <v>887</v>
       </c>
       <c r="B2660" s="3" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="C2660">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/887/1.png", 2)</f>
@@ -21391,7 +21428,7 @@
         <v>888</v>
       </c>
       <c r="B2663" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C2663">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/888/1.png", 2)</f>
@@ -21411,7 +21448,7 @@
         <v>889</v>
       </c>
       <c r="B2666" s="3" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C2666">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/889/1.png", 2)</f>
@@ -21431,7 +21468,7 @@
         <v>890</v>
       </c>
       <c r="B2669" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C2669">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/890/1.png", 2)</f>
@@ -21451,7 +21488,7 @@
         <v>891</v>
       </c>
       <c r="B2672" s="3" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="C2672">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/891/1.png", 2)</f>
@@ -21471,7 +21508,7 @@
         <v>892</v>
       </c>
       <c r="B2675" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C2675">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/892/1.png", 2)</f>
@@ -21491,7 +21528,7 @@
         <v>893</v>
       </c>
       <c r="B2678" s="3" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C2678">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/893/1.png", 2)</f>
@@ -21511,7 +21548,7 @@
         <v>894</v>
       </c>
       <c r="B2681" s="3" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C2681">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/894/1.png", 2)</f>
@@ -21531,7 +21568,7 @@
         <v>895</v>
       </c>
       <c r="B2684" s="3" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="C2684">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/895/1.png", 2)</f>
@@ -21551,7 +21588,7 @@
         <v>896</v>
       </c>
       <c r="B2687" s="3" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C2687">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/896/1.png", 2)</f>
@@ -21571,7 +21608,7 @@
         <v>897</v>
       </c>
       <c r="B2690" s="3" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C2690">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/897/1.png", 2)</f>
@@ -21591,7 +21628,7 @@
         <v>898</v>
       </c>
       <c r="B2693" s="3" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C2693">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/898/1.png", 2)</f>
@@ -21611,7 +21648,7 @@
         <v>899</v>
       </c>
       <c r="B2696" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C2696">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/899/1.png", 2)</f>
@@ -21631,7 +21668,7 @@
         <v>900</v>
       </c>
       <c r="B2699" s="3" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C2699">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/900/1.png", 2)</f>
@@ -21651,7 +21688,7 @@
         <v>901</v>
       </c>
       <c r="B2702" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C2702">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/901/1.png", 2)</f>
@@ -21671,7 +21708,7 @@
         <v>902</v>
       </c>
       <c r="B2705" s="3" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C2705">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/902/1.png", 2)</f>
@@ -21691,7 +21728,7 @@
         <v>903</v>
       </c>
       <c r="B2708" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C2708">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/903/1.png", 2)</f>
@@ -21711,7 +21748,7 @@
         <v>904</v>
       </c>
       <c r="B2711" s="3" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C2711">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/904/1.png", 2)</f>
@@ -21731,7 +21768,7 @@
         <v>905</v>
       </c>
       <c r="B2714" s="3" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C2714">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/905/1.png", 2)</f>
@@ -21751,7 +21788,7 @@
         <v>906</v>
       </c>
       <c r="B2717" s="3" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C2717">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/906/1.png", 2)</f>
@@ -21771,7 +21808,7 @@
         <v>907</v>
       </c>
       <c r="B2720" s="3" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C2720">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/907/1.png", 2)</f>
@@ -21791,7 +21828,7 @@
         <v>908</v>
       </c>
       <c r="B2723" s="3" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C2723">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/908/1.png", 2)</f>
@@ -21811,7 +21848,7 @@
         <v>909</v>
       </c>
       <c r="B2726" s="3" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="C2726">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/909/1.png", 2)</f>
@@ -21831,7 +21868,7 @@
         <v>910</v>
       </c>
       <c r="B2729" s="3" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C2729">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/910/1.png", 2)</f>
@@ -21851,7 +21888,7 @@
         <v>911</v>
       </c>
       <c r="B2732" s="3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C2732">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/911/1.png", 2)</f>
@@ -21871,7 +21908,7 @@
         <v>912</v>
       </c>
       <c r="B2735" s="3" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C2735">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/912/1.png", 2)</f>
@@ -21891,7 +21928,7 @@
         <v>913</v>
       </c>
       <c r="B2738" s="3" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C2738">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/913/1.png", 2)</f>
@@ -21911,7 +21948,7 @@
         <v>914</v>
       </c>
       <c r="B2741" s="3" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C2741">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/914/1.png", 2)</f>
@@ -21931,7 +21968,7 @@
         <v>915</v>
       </c>
       <c r="B2744" s="3" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C2744">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/915/1.png", 2)</f>
@@ -21951,7 +21988,7 @@
         <v>916</v>
       </c>
       <c r="B2747" s="3" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C2747">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/916/1.png", 2)</f>
@@ -21971,7 +22008,7 @@
         <v>917</v>
       </c>
       <c r="B2750" s="3" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C2750">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/917/1.png", 2)</f>
@@ -21991,7 +22028,7 @@
         <v>918</v>
       </c>
       <c r="B2753" s="3" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="C2753">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/918/1.png", 2)</f>
@@ -22011,7 +22048,7 @@
         <v>919</v>
       </c>
       <c r="B2756" s="3" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="C2756">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/919/1.png", 2)</f>
@@ -22031,7 +22068,7 @@
         <v>920</v>
       </c>
       <c r="B2759" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C2759">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/920/1.png", 2)</f>
@@ -22051,7 +22088,7 @@
         <v>921</v>
       </c>
       <c r="B2762" s="3" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C2762">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/921/1.png", 2)</f>
@@ -22071,7 +22108,7 @@
         <v>922</v>
       </c>
       <c r="B2765" s="3" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C2765">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/922/1.png", 2)</f>
@@ -22091,7 +22128,7 @@
         <v>923</v>
       </c>
       <c r="B2768" s="3" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C2768">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/923/1.png", 2)</f>
@@ -22111,7 +22148,7 @@
         <v>924</v>
       </c>
       <c r="B2771" s="3" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="C2771">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/924/1.png", 2)</f>
@@ -22131,7 +22168,7 @@
         <v>925</v>
       </c>
       <c r="B2774" s="3" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="C2774">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/925/1.png", 2)</f>
@@ -22151,7 +22188,7 @@
         <v>926</v>
       </c>
       <c r="B2777" s="3" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="C2777">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/926/1.png", 2)</f>
@@ -22171,7 +22208,7 @@
         <v>927</v>
       </c>
       <c r="B2780" s="3" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C2780">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/927/1.png", 2)</f>
@@ -22191,7 +22228,7 @@
         <v>928</v>
       </c>
       <c r="B2783" s="3" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="C2783">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/928/1.png", 2)</f>
@@ -22211,7 +22248,7 @@
         <v>929</v>
       </c>
       <c r="B2786" s="3" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="C2786">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/929/1.png", 2)</f>
@@ -22231,7 +22268,7 @@
         <v>930</v>
       </c>
       <c r="B2789" s="3" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C2789">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/930/1.png", 2)</f>
@@ -22251,7 +22288,7 @@
         <v>931</v>
       </c>
       <c r="B2792" s="3" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="C2792">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/931/1.png", 2)</f>
@@ -22271,7 +22308,7 @@
         <v>932</v>
       </c>
       <c r="B2795" s="3" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C2795">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/932/1.png", 2)</f>
@@ -22291,7 +22328,7 @@
         <v>933</v>
       </c>
       <c r="B2798" s="3" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="C2798">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/933/1.png", 2)</f>
@@ -22311,7 +22348,7 @@
         <v>934</v>
       </c>
       <c r="B2801" s="3" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="C2801">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/934/1.png", 2)</f>
@@ -22331,7 +22368,7 @@
         <v>935</v>
       </c>
       <c r="B2804" s="3" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C2804">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/935/1.png", 2)</f>
@@ -22351,7 +22388,7 @@
         <v>936</v>
       </c>
       <c r="B2807" s="3" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C2807">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/936/1.png", 2)</f>
@@ -22371,7 +22408,7 @@
         <v>937</v>
       </c>
       <c r="B2810" s="3" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="C2810">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/937/1.png", 2)</f>
@@ -22391,7 +22428,7 @@
         <v>938</v>
       </c>
       <c r="B2813" s="3" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C2813">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/938/1.png", 2)</f>
@@ -22411,7 +22448,7 @@
         <v>939</v>
       </c>
       <c r="B2816" s="3" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="C2816">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/939/1.png", 2)</f>
@@ -22431,7 +22468,7 @@
         <v>940</v>
       </c>
       <c r="B2819" s="3" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C2819">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/940/1.png", 2)</f>
@@ -22451,7 +22488,7 @@
         <v>941</v>
       </c>
       <c r="B2822" s="3" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="C2822">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/941/1.png", 2)</f>
@@ -22471,7 +22508,7 @@
         <v>942</v>
       </c>
       <c r="B2825" s="3" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="C2825">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/942/1.png", 2)</f>
@@ -22491,7 +22528,7 @@
         <v>943</v>
       </c>
       <c r="B2828" s="3" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C2828">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/943/1.png", 2)</f>
@@ -22511,7 +22548,7 @@
         <v>944</v>
       </c>
       <c r="B2831" s="3" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C2831">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/944/1.png", 2)</f>
@@ -22531,7 +22568,7 @@
         <v>945</v>
       </c>
       <c r="B2834" s="3" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="C2834">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/945/1.png", 2)</f>
@@ -22551,7 +22588,7 @@
         <v>946</v>
       </c>
       <c r="B2837" s="3" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C2837">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/946/1.png", 2)</f>
@@ -22571,7 +22608,7 @@
         <v>947</v>
       </c>
       <c r="B2840" s="3" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="C2840">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/947/1.png", 2)</f>
@@ -22591,7 +22628,7 @@
         <v>948</v>
       </c>
       <c r="B2843" s="3" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="C2843">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/948/1.png", 2)</f>
@@ -22611,7 +22648,7 @@
         <v>949</v>
       </c>
       <c r="B2846" s="3" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="C2846">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/949/1.png", 2)</f>
@@ -22631,7 +22668,7 @@
         <v>950</v>
       </c>
       <c r="B2849" s="3" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C2849">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/950/1.png", 2)</f>
@@ -22651,7 +22688,7 @@
         <v>951</v>
       </c>
       <c r="B2852" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="C2852">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/951/1.png", 2)</f>
@@ -22671,7 +22708,7 @@
         <v>952</v>
       </c>
       <c r="B2855" s="3" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="C2855">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/952/1.png", 2)</f>
@@ -22691,7 +22728,7 @@
         <v>953</v>
       </c>
       <c r="B2858" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="C2858">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/953/1.png", 2)</f>
@@ -22711,7 +22748,7 @@
         <v>954</v>
       </c>
       <c r="B2861" s="3" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C2861">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/954/1.png", 2)</f>
@@ -22731,7 +22768,7 @@
         <v>955</v>
       </c>
       <c r="B2864" s="3" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="C2864">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/955/1.png", 2)</f>
@@ -22751,7 +22788,7 @@
         <v>956</v>
       </c>
       <c r="B2867" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="C2867">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/956/1.png", 2)</f>
@@ -22771,7 +22808,7 @@
         <v>957</v>
       </c>
       <c r="B2870" s="3" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="C2870">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/957/1.png", 2)</f>
@@ -22791,7 +22828,7 @@
         <v>958</v>
       </c>
       <c r="B2873" s="3" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="C2873">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/958/1.png", 2)</f>
@@ -22811,7 +22848,7 @@
         <v>959</v>
       </c>
       <c r="B2876" s="3" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="C2876">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/959/1.png", 2)</f>
@@ -22831,7 +22868,7 @@
         <v>960</v>
       </c>
       <c r="B2879" s="3" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="C2879">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/960/1.png", 2)</f>
@@ -22851,7 +22888,7 @@
         <v>961</v>
       </c>
       <c r="B2882" s="3" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="C2882">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/961/1.png", 2)</f>
@@ -22871,7 +22908,7 @@
         <v>962</v>
       </c>
       <c r="B2885" s="3" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="C2885">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/962/1.png", 2)</f>
@@ -22891,7 +22928,7 @@
         <v>963</v>
       </c>
       <c r="B2888" s="3" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C2888">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/963/1.png", 2)</f>
@@ -22911,7 +22948,7 @@
         <v>964</v>
       </c>
       <c r="B2891" s="3" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="C2891">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/964/1.png", 2)</f>
@@ -22931,7 +22968,7 @@
         <v>965</v>
       </c>
       <c r="B2894" s="3" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="C2894">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/965/1.png", 2)</f>
@@ -22951,7 +22988,7 @@
         <v>966</v>
       </c>
       <c r="B2897" s="3" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="C2897">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/966/1.png", 2)</f>
@@ -22971,7 +23008,7 @@
         <v>967</v>
       </c>
       <c r="B2900" s="3" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="C2900">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/967/1.png", 2)</f>
@@ -22991,7 +23028,7 @@
         <v>968</v>
       </c>
       <c r="B2903" s="3" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="C2903">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/968/1.png", 2)</f>
@@ -23011,7 +23048,7 @@
         <v>969</v>
       </c>
       <c r="B2906" s="3" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C2906">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/969/1.png", 2)</f>
@@ -23031,7 +23068,7 @@
         <v>970</v>
       </c>
       <c r="B2909" s="3" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C2909">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/970/1.png", 2)</f>
@@ -23051,7 +23088,7 @@
         <v>971</v>
       </c>
       <c r="B2912" s="3" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="C2912">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/971/1.png", 2)</f>
@@ -23071,7 +23108,7 @@
         <v>972</v>
       </c>
       <c r="B2915" s="3" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C2915">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/972/1.png", 2)</f>
@@ -23091,7 +23128,7 @@
         <v>973</v>
       </c>
       <c r="B2918" s="3" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="C2918">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/973/1.png", 2)</f>
@@ -23111,7 +23148,7 @@
         <v>974</v>
       </c>
       <c r="B2921" s="3" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="C2921">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/974/1.png", 2)</f>
@@ -23131,7 +23168,7 @@
         <v>975</v>
       </c>
       <c r="B2924" s="3" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="C2924">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/975/1.png", 2)</f>
@@ -23151,7 +23188,7 @@
         <v>976</v>
       </c>
       <c r="B2927" s="3" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="C2927">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/976/1.png", 2)</f>
@@ -23171,7 +23208,7 @@
         <v>977</v>
       </c>
       <c r="B2930" s="3" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="C2930">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/977/1.png", 2)</f>
@@ -23191,7 +23228,7 @@
         <v>978</v>
       </c>
       <c r="B2933" s="3" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="C2933">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/978/1.png", 2)</f>
@@ -23211,7 +23248,7 @@
         <v>979</v>
       </c>
       <c r="B2936" s="3" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C2936">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/979/1.png", 2)</f>
@@ -23231,7 +23268,7 @@
         <v>980</v>
       </c>
       <c r="B2939" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="C2939">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/980/1.png", 2)</f>
@@ -23251,7 +23288,7 @@
         <v>981</v>
       </c>
       <c r="B2942" s="3" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="C2942">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/981/1.png", 2)</f>
@@ -23271,7 +23308,7 @@
         <v>982</v>
       </c>
       <c r="B2945" s="3" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="C2945">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/982/1.png", 2)</f>
@@ -23291,7 +23328,7 @@
         <v>983</v>
       </c>
       <c r="B2948" s="3" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="C2948">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/983/1.png", 2)</f>
@@ -23311,7 +23348,7 @@
         <v>984</v>
       </c>
       <c r="B2951" s="3" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="C2951">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/984/1.png", 2)</f>
@@ -23331,7 +23368,7 @@
         <v>985</v>
       </c>
       <c r="B2954" s="3" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="C2954">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/985/1.png", 2)</f>
@@ -23351,7 +23388,7 @@
         <v>986</v>
       </c>
       <c r="B2957" s="3" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="C2957">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/986/1.png", 2)</f>
@@ -23371,7 +23408,7 @@
         <v>987</v>
       </c>
       <c r="B2960" s="3" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="C2960">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/987/1.png", 2)</f>
@@ -23391,7 +23428,7 @@
         <v>988</v>
       </c>
       <c r="B2963" s="3" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="C2963">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/988/1.png", 2)</f>
@@ -23411,7 +23448,7 @@
         <v>989</v>
       </c>
       <c r="B2966" s="3" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="C2966">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/989/1.png", 2)</f>
@@ -23431,7 +23468,7 @@
         <v>990</v>
       </c>
       <c r="B2969" s="3" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C2969">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/990/1.png", 2)</f>
@@ -23451,7 +23488,7 @@
         <v>991</v>
       </c>
       <c r="B2972" s="3" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="C2972">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/991/1.png", 2)</f>
@@ -23471,7 +23508,7 @@
         <v>992</v>
       </c>
       <c r="B2975" s="3" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C2975">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/992/1.png", 2)</f>
@@ -23491,7 +23528,7 @@
         <v>993</v>
       </c>
       <c r="B2978" s="3" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="C2978">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/993/1.png", 2)</f>
@@ -23511,7 +23548,7 @@
         <v>994</v>
       </c>
       <c r="B2981" s="3" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="C2981">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/994/1.png", 2)</f>
@@ -23531,7 +23568,7 @@
         <v>995</v>
       </c>
       <c r="B2984" s="3" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="C2984">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/995/1.png", 2)</f>
@@ -23551,7 +23588,7 @@
         <v>996</v>
       </c>
       <c r="B2987" s="3" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="C2987">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/996/1.png", 2)</f>
@@ -23571,7 +23608,7 @@
         <v>997</v>
       </c>
       <c r="B2990" s="3" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="C2990">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/997/1.png", 2)</f>
@@ -23591,7 +23628,7 @@
         <v>998</v>
       </c>
       <c r="B2993" s="3" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="C2993">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/998/1.png", 2)</f>
@@ -23611,7 +23648,7 @@
         <v>999</v>
       </c>
       <c r="B2996" s="3" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C2996">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/999/1.png", 2)</f>
@@ -23631,7 +23668,7 @@
         <v>1000</v>
       </c>
       <c r="B2999" s="3" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C2999">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1000/1.png", 2)</f>
@@ -23651,7 +23688,7 @@
         <v>1001</v>
       </c>
       <c r="B3002" s="3" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="C3002">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1001/1.png", 2)</f>
@@ -23671,7 +23708,7 @@
         <v>1002</v>
       </c>
       <c r="B3005" s="3" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C3005">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1002/1.png", 2)</f>
@@ -23691,7 +23728,7 @@
         <v>1003</v>
       </c>
       <c r="B3008" s="3" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="C3008">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1003/1.png", 2)</f>
@@ -23711,7 +23748,7 @@
         <v>1004</v>
       </c>
       <c r="B3011" s="3" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="C3011">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1004/1.png", 2)</f>
@@ -23731,7 +23768,7 @@
         <v>1005</v>
       </c>
       <c r="B3014" s="3" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="C3014">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1005/1.png", 2)</f>
@@ -23751,7 +23788,7 @@
         <v>1006</v>
       </c>
       <c r="B3017" s="3" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C3017">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1006/1.png", 2)</f>
@@ -23771,7 +23808,7 @@
         <v>1007</v>
       </c>
       <c r="B3020" s="3" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="C3020">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1007/1.png", 2)</f>
@@ -23791,7 +23828,7 @@
         <v>1008</v>
       </c>
       <c r="B3023" s="3" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="C3023">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1008/1.png", 2)</f>
@@ -23811,7 +23848,7 @@
         <v>1009</v>
       </c>
       <c r="B3026" s="3" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="C3026">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1009/1.png", 2)</f>
@@ -23831,7 +23868,7 @@
         <v>1010</v>
       </c>
       <c r="B3029" s="3" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C3029">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1010/1.png", 2)</f>
@@ -23851,7 +23888,7 @@
         <v>1011</v>
       </c>
       <c r="B3032" s="3" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="C3032">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1011/1.png", 2)</f>
@@ -23871,7 +23908,7 @@
         <v>1012</v>
       </c>
       <c r="B3035" s="3" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="C3035">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1012/1.png", 2)</f>
@@ -23891,7 +23928,7 @@
         <v>1013</v>
       </c>
       <c r="B3038" s="3" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="C3038">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1013/1.png", 2)</f>
@@ -23911,7 +23948,7 @@
         <v>1014</v>
       </c>
       <c r="B3041" s="3" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="C3041">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1014/1.png", 2)</f>
@@ -23931,7 +23968,7 @@
         <v>1015</v>
       </c>
       <c r="B3044" s="3" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="C3044">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1015/1.png", 2)</f>
@@ -23951,7 +23988,7 @@
         <v>1016</v>
       </c>
       <c r="B3047" s="3" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C3047">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1016/1.png", 2)</f>
@@ -23971,7 +24008,7 @@
         <v>1017</v>
       </c>
       <c r="B3050" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="C3050">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1017/1.png", 2)</f>
@@ -23991,7 +24028,7 @@
         <v>1018</v>
       </c>
       <c r="B3053" s="3" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C3053">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1018/1.png", 2)</f>
@@ -24011,7 +24048,7 @@
         <v>1019</v>
       </c>
       <c r="B3056" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="C3056">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1019/1.png", 2)</f>
@@ -24031,7 +24068,7 @@
         <v>1020</v>
       </c>
       <c r="B3059" s="3" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C3059">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1020/1.png", 2)</f>
@@ -24051,7 +24088,7 @@
         <v>1021</v>
       </c>
       <c r="B3062" s="3" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C3062">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1021/1.png", 2)</f>
@@ -24071,7 +24108,7 @@
         <v>1022</v>
       </c>
       <c r="B3065" s="3" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="C3065">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1022/1.png", 2)</f>
@@ -24091,7 +24128,7 @@
         <v>1023</v>
       </c>
       <c r="B3068" s="3" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C3068">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1023/1.png", 2)</f>
@@ -24111,7 +24148,7 @@
         <v>1024</v>
       </c>
       <c r="B3071" s="3" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="C3071">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1024/1.png", 2)</f>
@@ -24131,7 +24168,7 @@
         <v>1025</v>
       </c>
       <c r="B3074" s="3" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="C3074">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1025/1.png", 2)</f>

--- a/livingdex.xlsx
+++ b/livingdex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="1047">
   <si>
     <t>#</t>
   </si>
@@ -3165,6 +3165,9 @@
   </si>
   <si>
     <t>Pecharunt</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -3588,7 +3591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3075"/>
+  <dimension ref="A1:K3075"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3597,7 +3600,7 @@
     <col min="3" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3619,8 +3622,19 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="264" customHeight="1">
+      <c r="I1" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J1" s="1">
+        <f>concat(round(countif(G2:G9999, "TRUE")), concat(" of ", COUNTA(G2:G9999)))</f>
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <f>concat(concat("(", concat(round(countif(G2:G9999, "TRUE")/COUNTA(G2:G9999)*100, 2), "%")), ")")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="264" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3635,12 +3649,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="264" customHeight="1">
+    <row r="5" spans="1:11" ht="264" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -3667,7 +3681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11">
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
@@ -3681,7 +3695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="264" customHeight="1">
+    <row r="8" spans="1:11" ht="264" customHeight="1">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -3708,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:11">
       <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
@@ -3722,7 +3736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="264" customHeight="1">
+    <row r="11" spans="1:11" ht="264" customHeight="1">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -3737,12 +3751,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:11">
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="264" customHeight="1">
+    <row r="14" spans="1:11" ht="264" customHeight="1">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -3757,7 +3771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:11">
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>

--- a/livingdex.xlsx
+++ b/livingdex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="1057">
   <si>
     <t>#</t>
   </si>
@@ -2284,6 +2284,22 @@
     <t>Grubbin</t>
   </si>
   <si>
+    <t>Rebel Clash
+#16</t>
+  </si>
+  <si>
+    <t>Crown Zenith
+#15</t>
+  </si>
+  <si>
+    <t>Sun &amp; Moon Trainer Kit - Alolan Raichu
+#TK10A</t>
+  </si>
+  <si>
+    <t>Temporal Forces
+#18</t>
+  </si>
+  <si>
     <t>Charjabug</t>
   </si>
   <si>
@@ -2633,6 +2649,22 @@
     <t>Barraskewda</t>
   </si>
   <si>
+    <t>Vivid Voltage
+#42</t>
+  </si>
+  <si>
+    <t>Fusion Strike
+#83</t>
+  </si>
+  <si>
+    <t>Rebel Clash
+#53</t>
+  </si>
+  <si>
+    <t>Shining Fates
+#SV032</t>
+  </si>
+  <si>
     <t>Toxel</t>
   </si>
   <si>
@@ -2901,6 +2933,14 @@
   </si>
   <si>
     <t>Ceruledge</t>
+  </si>
+  <si>
+    <t>Paldea Evolved
+#98</t>
+  </si>
+  <si>
+    <t>Paldean Fates
+#162</t>
   </si>
   <si>
     <t>Tadbulb</t>
@@ -3623,7 +3663,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="J1" s="1">
         <f>concat(round(countif(G2:G9999, "TRUE")), concat(" of ", COUNTA(G2:G9999)))</f>
@@ -18387,13 +18427,34 @@
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/736/1.png", 2)</f>
         <v>0</v>
       </c>
+      <c r="D2207">
+        <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/736/2.png", 2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2207">
+        <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/736/3.png", 2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2207">
+        <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/736/4.png", 2)</f>
+        <v>0</v>
+      </c>
       <c r="G2207" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2208" spans="1:7">
       <c r="C2208" s="4" t="s">
-        <v>20</v>
+        <v>753</v>
+      </c>
+      <c r="D2208" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="E2208" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="F2208" s="4" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="2210" spans="1:7" ht="264" customHeight="1">
@@ -18401,7 +18462,7 @@
         <v>737</v>
       </c>
       <c r="B2210" s="3" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C2210">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/737/1.png", 2)</f>
@@ -18421,7 +18482,7 @@
         <v>738</v>
       </c>
       <c r="B2213" s="3" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="C2213">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/738/1.png", 2)</f>
@@ -18441,7 +18502,7 @@
         <v>739</v>
       </c>
       <c r="B2216" s="3" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C2216">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/739/1.png", 2)</f>
@@ -18461,7 +18522,7 @@
         <v>740</v>
       </c>
       <c r="B2219" s="3" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C2219">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/740/1.png", 2)</f>
@@ -18481,7 +18542,7 @@
         <v>741</v>
       </c>
       <c r="B2222" s="3" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C2222">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/741/1.png", 2)</f>
@@ -18501,7 +18562,7 @@
         <v>742</v>
       </c>
       <c r="B2225" s="3" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C2225">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/742/1.png", 2)</f>
@@ -18521,7 +18582,7 @@
         <v>743</v>
       </c>
       <c r="B2228" s="3" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C2228">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/743/1.png", 2)</f>
@@ -18541,7 +18602,7 @@
         <v>744</v>
       </c>
       <c r="B2231" s="3" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C2231">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/744/1.png", 2)</f>
@@ -18561,7 +18622,7 @@
         <v>745</v>
       </c>
       <c r="B2234" s="3" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C2234">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/745/1.png", 2)</f>
@@ -18581,7 +18642,7 @@
         <v>746</v>
       </c>
       <c r="B2237" s="3" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C2237">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/746/1.png", 2)</f>
@@ -18601,7 +18662,7 @@
         <v>747</v>
       </c>
       <c r="B2240" s="3" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C2240">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/747/1.png", 2)</f>
@@ -18621,7 +18682,7 @@
         <v>748</v>
       </c>
       <c r="B2243" s="3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C2243">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/748/1.png", 2)</f>
@@ -18641,7 +18702,7 @@
         <v>749</v>
       </c>
       <c r="B2246" s="3" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C2246">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/749/1.png", 2)</f>
@@ -18661,7 +18722,7 @@
         <v>750</v>
       </c>
       <c r="B2249" s="3" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C2249">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/750/1.png", 2)</f>
@@ -18681,7 +18742,7 @@
         <v>751</v>
       </c>
       <c r="B2252" s="3" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C2252">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/751/1.png", 2)</f>
@@ -18701,7 +18762,7 @@
         <v>752</v>
       </c>
       <c r="B2255" s="3" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C2255">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/752/1.png", 2)</f>
@@ -18721,7 +18782,7 @@
         <v>753</v>
       </c>
       <c r="B2258" s="3" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C2258">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/753/1.png", 2)</f>
@@ -18741,7 +18802,7 @@
         <v>754</v>
       </c>
       <c r="B2261" s="3" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C2261">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/754/1.png", 2)</f>
@@ -18761,7 +18822,7 @@
         <v>755</v>
       </c>
       <c r="B2264" s="3" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C2264">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/755/1.png", 2)</f>
@@ -18781,7 +18842,7 @@
         <v>756</v>
       </c>
       <c r="B2267" s="3" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C2267">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/756/1.png", 2)</f>
@@ -18801,7 +18862,7 @@
         <v>757</v>
       </c>
       <c r="B2270" s="3" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C2270">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/757/1.png", 2)</f>
@@ -18821,7 +18882,7 @@
         <v>758</v>
       </c>
       <c r="B2273" s="3" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C2273">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/758/1.png", 2)</f>
@@ -18841,7 +18902,7 @@
         <v>759</v>
       </c>
       <c r="B2276" s="3" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C2276">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/759/1.png", 2)</f>
@@ -18861,7 +18922,7 @@
         <v>760</v>
       </c>
       <c r="B2279" s="3" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C2279">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/760/1.png", 2)</f>
@@ -18881,7 +18942,7 @@
         <v>761</v>
       </c>
       <c r="B2282" s="3" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C2282">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/761/1.png", 2)</f>
@@ -18901,7 +18962,7 @@
         <v>762</v>
       </c>
       <c r="B2285" s="3" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C2285">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/762/1.png", 2)</f>
@@ -18921,7 +18982,7 @@
         <v>763</v>
       </c>
       <c r="B2288" s="3" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C2288">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/763/1.png", 2)</f>
@@ -18941,7 +19002,7 @@
         <v>764</v>
       </c>
       <c r="B2291" s="3" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C2291">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/764/1.png", 2)</f>
@@ -18961,7 +19022,7 @@
         <v>765</v>
       </c>
       <c r="B2294" s="3" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C2294">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/765/1.png", 2)</f>
@@ -18981,7 +19042,7 @@
         <v>766</v>
       </c>
       <c r="B2297" s="3" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C2297">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/766/1.png", 2)</f>
@@ -19001,7 +19062,7 @@
         <v>767</v>
       </c>
       <c r="B2300" s="3" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C2300">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/767/1.png", 2)</f>
@@ -19021,7 +19082,7 @@
         <v>768</v>
       </c>
       <c r="B2303" s="3" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C2303">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/768/1.png", 2)</f>
@@ -19041,7 +19102,7 @@
         <v>769</v>
       </c>
       <c r="B2306" s="3" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C2306">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/769/1.png", 2)</f>
@@ -19061,7 +19122,7 @@
         <v>770</v>
       </c>
       <c r="B2309" s="3" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C2309">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/770/1.png", 2)</f>
@@ -19081,7 +19142,7 @@
         <v>771</v>
       </c>
       <c r="B2312" s="3" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C2312">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/771/1.png", 2)</f>
@@ -19101,7 +19162,7 @@
         <v>772</v>
       </c>
       <c r="B2315" s="3" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C2315">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/772/1.png", 2)</f>
@@ -19121,7 +19182,7 @@
         <v>773</v>
       </c>
       <c r="B2318" s="3" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C2318">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/773/1.png", 2)</f>
@@ -19141,7 +19202,7 @@
         <v>774</v>
       </c>
       <c r="B2321" s="3" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C2321">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/774/1.png", 2)</f>
@@ -19161,7 +19222,7 @@
         <v>775</v>
       </c>
       <c r="B2324" s="3" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C2324">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/775/1.png", 2)</f>
@@ -19181,7 +19242,7 @@
         <v>776</v>
       </c>
       <c r="B2327" s="3" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C2327">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/776/1.png", 2)</f>
@@ -19201,7 +19262,7 @@
         <v>777</v>
       </c>
       <c r="B2330" s="3" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C2330">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/777/1.png", 2)</f>
@@ -19221,7 +19282,7 @@
         <v>778</v>
       </c>
       <c r="B2333" s="3" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C2333">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/778/1.png", 2)</f>
@@ -19241,7 +19302,7 @@
         <v>779</v>
       </c>
       <c r="B2336" s="3" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C2336">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/779/1.png", 2)</f>
@@ -19261,7 +19322,7 @@
         <v>780</v>
       </c>
       <c r="B2339" s="3" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C2339">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/780/1.png", 2)</f>
@@ -19281,7 +19342,7 @@
         <v>781</v>
       </c>
       <c r="B2342" s="3" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C2342">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/781/1.png", 2)</f>
@@ -19301,7 +19362,7 @@
         <v>782</v>
       </c>
       <c r="B2345" s="3" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C2345">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/782/1.png", 2)</f>
@@ -19321,7 +19382,7 @@
         <v>783</v>
       </c>
       <c r="B2348" s="3" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C2348">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/783/1.png", 2)</f>
@@ -19341,7 +19402,7 @@
         <v>784</v>
       </c>
       <c r="B2351" s="3" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C2351">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/784/1.png", 2)</f>
@@ -19361,7 +19422,7 @@
         <v>785</v>
       </c>
       <c r="B2354" s="3" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C2354">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/785/1.png", 2)</f>
@@ -19381,7 +19442,7 @@
         <v>786</v>
       </c>
       <c r="B2357" s="3" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C2357">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/786/1.png", 2)</f>
@@ -19401,7 +19462,7 @@
         <v>787</v>
       </c>
       <c r="B2360" s="3" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C2360">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/787/1.png", 2)</f>
@@ -19421,7 +19482,7 @@
         <v>788</v>
       </c>
       <c r="B2363" s="3" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C2363">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/788/1.png", 2)</f>
@@ -19441,7 +19502,7 @@
         <v>789</v>
       </c>
       <c r="B2366" s="3" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C2366">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/789/1.png", 2)</f>
@@ -19461,7 +19522,7 @@
         <v>790</v>
       </c>
       <c r="B2369" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="C2369">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/790/1.png", 2)</f>
@@ -19481,7 +19542,7 @@
         <v>791</v>
       </c>
       <c r="B2372" s="3" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C2372">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/791/1.png", 2)</f>
@@ -19501,7 +19562,7 @@
         <v>792</v>
       </c>
       <c r="B2375" s="3" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C2375">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/792/1.png", 2)</f>
@@ -19521,7 +19582,7 @@
         <v>793</v>
       </c>
       <c r="B2378" s="3" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C2378">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/793/1.png", 2)</f>
@@ -19541,7 +19602,7 @@
         <v>794</v>
       </c>
       <c r="B2381" s="3" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C2381">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/794/1.png", 2)</f>
@@ -19561,7 +19622,7 @@
         <v>795</v>
       </c>
       <c r="B2384" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C2384">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/795/1.png", 2)</f>
@@ -19581,7 +19642,7 @@
         <v>796</v>
       </c>
       <c r="B2387" s="3" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C2387">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/796/1.png", 2)</f>
@@ -19601,7 +19662,7 @@
         <v>797</v>
       </c>
       <c r="B2390" s="3" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C2390">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/797/1.png", 2)</f>
@@ -19621,7 +19682,7 @@
         <v>798</v>
       </c>
       <c r="B2393" s="3" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C2393">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/798/1.png", 2)</f>
@@ -19641,7 +19702,7 @@
         <v>799</v>
       </c>
       <c r="B2396" s="3" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C2396">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/799/1.png", 2)</f>
@@ -19661,7 +19722,7 @@
         <v>800</v>
       </c>
       <c r="B2399" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C2399">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/800/1.png", 2)</f>
@@ -19681,7 +19742,7 @@
         <v>801</v>
       </c>
       <c r="B2402" s="3" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C2402">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/801/1.png", 2)</f>
@@ -19701,7 +19762,7 @@
         <v>802</v>
       </c>
       <c r="B2405" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C2405">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/802/1.png", 2)</f>
@@ -19721,7 +19782,7 @@
         <v>803</v>
       </c>
       <c r="B2408" s="3" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C2408">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/803/1.png", 2)</f>
@@ -19741,7 +19802,7 @@
         <v>804</v>
       </c>
       <c r="B2411" s="3" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C2411">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/804/1.png", 2)</f>
@@ -19761,7 +19822,7 @@
         <v>805</v>
       </c>
       <c r="B2414" s="3" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C2414">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/805/1.png", 2)</f>
@@ -19781,7 +19842,7 @@
         <v>806</v>
       </c>
       <c r="B2417" s="3" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C2417">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/806/1.png", 2)</f>
@@ -19801,7 +19862,7 @@
         <v>807</v>
       </c>
       <c r="B2420" s="3" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C2420">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/807/1.png", 2)</f>
@@ -19821,7 +19882,7 @@
         <v>808</v>
       </c>
       <c r="B2423" s="3" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C2423">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/808/1.png", 2)</f>
@@ -19841,7 +19902,7 @@
         <v>809</v>
       </c>
       <c r="B2426" s="3" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C2426">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/809/1.png", 2)</f>
@@ -19861,7 +19922,7 @@
         <v>810</v>
       </c>
       <c r="B2429" s="3" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C2429">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/810/1.png", 2)</f>
@@ -19881,7 +19942,7 @@
         <v>811</v>
       </c>
       <c r="B2432" s="3" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C2432">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/811/1.png", 2)</f>
@@ -19901,7 +19962,7 @@
         <v>812</v>
       </c>
       <c r="B2435" s="3" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C2435">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/812/1.png", 2)</f>
@@ -19921,7 +19982,7 @@
         <v>813</v>
       </c>
       <c r="B2438" s="3" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C2438">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/813/1.png", 2)</f>
@@ -19941,7 +20002,7 @@
         <v>814</v>
       </c>
       <c r="B2441" s="3" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C2441">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/814/1.png", 2)</f>
@@ -19961,7 +20022,7 @@
         <v>815</v>
       </c>
       <c r="B2444" s="3" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C2444">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/815/1.png", 2)</f>
@@ -19981,7 +20042,7 @@
         <v>816</v>
       </c>
       <c r="B2447" s="3" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C2447">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/816/1.png", 2)</f>
@@ -20001,7 +20062,7 @@
         <v>817</v>
       </c>
       <c r="B2450" s="3" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C2450">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/817/1.png", 2)</f>
@@ -20021,7 +20082,7 @@
         <v>818</v>
       </c>
       <c r="B2453" s="3" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C2453">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/818/1.png", 2)</f>
@@ -20041,7 +20102,7 @@
         <v>819</v>
       </c>
       <c r="B2456" s="3" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C2456">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/819/1.png", 2)</f>
@@ -20061,7 +20122,7 @@
         <v>820</v>
       </c>
       <c r="B2459" s="3" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C2459">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/820/1.png", 2)</f>
@@ -20081,7 +20142,7 @@
         <v>821</v>
       </c>
       <c r="B2462" s="3" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C2462">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/821/1.png", 2)</f>
@@ -20101,7 +20162,7 @@
         <v>822</v>
       </c>
       <c r="B2465" s="3" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C2465">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/822/1.png", 2)</f>
@@ -20121,7 +20182,7 @@
         <v>823</v>
       </c>
       <c r="B2468" s="3" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C2468">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/823/1.png", 2)</f>
@@ -20141,7 +20202,7 @@
         <v>824</v>
       </c>
       <c r="B2471" s="3" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C2471">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/824/1.png", 2)</f>
@@ -20161,7 +20222,7 @@
         <v>825</v>
       </c>
       <c r="B2474" s="3" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C2474">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/825/1.png", 2)</f>
@@ -20181,7 +20242,7 @@
         <v>826</v>
       </c>
       <c r="B2477" s="3" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C2477">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/826/1.png", 2)</f>
@@ -20201,7 +20262,7 @@
         <v>827</v>
       </c>
       <c r="B2480" s="3" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C2480">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/827/1.png", 2)</f>
@@ -20221,7 +20282,7 @@
         <v>828</v>
       </c>
       <c r="B2483" s="3" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C2483">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/828/1.png", 2)</f>
@@ -20241,7 +20302,7 @@
         <v>829</v>
       </c>
       <c r="B2486" s="3" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C2486">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/829/1.png", 2)</f>
@@ -20261,7 +20322,7 @@
         <v>830</v>
       </c>
       <c r="B2489" s="3" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C2489">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/830/1.png", 2)</f>
@@ -20281,7 +20342,7 @@
         <v>831</v>
       </c>
       <c r="B2492" s="3" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="C2492">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/831/1.png", 2)</f>
@@ -20301,7 +20362,7 @@
         <v>832</v>
       </c>
       <c r="B2495" s="3" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C2495">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/832/1.png", 2)</f>
@@ -20321,7 +20382,7 @@
         <v>833</v>
       </c>
       <c r="B2498" s="3" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="C2498">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/833/1.png", 2)</f>
@@ -20341,7 +20402,7 @@
         <v>834</v>
       </c>
       <c r="B2501" s="3" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C2501">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/834/1.png", 2)</f>
@@ -20361,7 +20422,7 @@
         <v>835</v>
       </c>
       <c r="B2504" s="3" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C2504">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/835/1.png", 2)</f>
@@ -20381,7 +20442,7 @@
         <v>836</v>
       </c>
       <c r="B2507" s="3" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C2507">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/836/1.png", 2)</f>
@@ -20405,16 +20466,16 @@
     </row>
     <row r="2508" spans="1:7">
       <c r="C2508" s="4" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D2508" s="4" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E2508" s="4" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="F2508" s="4" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2510" spans="1:7" ht="264" customHeight="1">
@@ -20422,7 +20483,7 @@
         <v>837</v>
       </c>
       <c r="B2510" s="3" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C2510">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/837/1.png", 2)</f>
@@ -20442,7 +20503,7 @@
         <v>838</v>
       </c>
       <c r="B2513" s="3" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C2513">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/838/1.png", 2)</f>
@@ -20462,7 +20523,7 @@
         <v>839</v>
       </c>
       <c r="B2516" s="3" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C2516">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/839/1.png", 2)</f>
@@ -20482,7 +20543,7 @@
         <v>840</v>
       </c>
       <c r="B2519" s="3" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C2519">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/840/1.png", 2)</f>
@@ -20502,7 +20563,7 @@
         <v>841</v>
       </c>
       <c r="B2522" s="3" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C2522">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/841/1.png", 2)</f>
@@ -20522,7 +20583,7 @@
         <v>842</v>
       </c>
       <c r="B2525" s="3" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C2525">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/842/1.png", 2)</f>
@@ -20542,7 +20603,7 @@
         <v>843</v>
       </c>
       <c r="B2528" s="3" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C2528">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/843/1.png", 2)</f>
@@ -20562,7 +20623,7 @@
         <v>844</v>
       </c>
       <c r="B2531" s="3" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C2531">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/844/1.png", 2)</f>
@@ -20582,7 +20643,7 @@
         <v>845</v>
       </c>
       <c r="B2534" s="3" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C2534">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/845/1.png", 2)</f>
@@ -20602,7 +20663,7 @@
         <v>846</v>
       </c>
       <c r="B2537" s="3" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C2537">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/846/1.png", 2)</f>
@@ -20622,19 +20683,40 @@
         <v>847</v>
       </c>
       <c r="B2540" s="3" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="C2540">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/847/1.png", 2)</f>
         <v>0</v>
       </c>
+      <c r="D2540">
+        <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/847/2.png", 2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2540">
+        <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/847/3.png", 2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2540">
+        <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/847/4.png", 2)</f>
+        <v>0</v>
+      </c>
       <c r="G2540" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2541" spans="1:7">
       <c r="C2541" s="4" t="s">
-        <v>20</v>
+        <v>872</v>
+      </c>
+      <c r="D2541" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E2541" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F2541" s="4" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="2543" spans="1:7" ht="264" customHeight="1">
@@ -20642,7 +20724,7 @@
         <v>848</v>
       </c>
       <c r="B2543" s="3" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="C2543">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/848/1.png", 2)</f>
@@ -20662,7 +20744,7 @@
         <v>849</v>
       </c>
       <c r="B2546" s="3" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="C2546">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/849/1.png", 2)</f>
@@ -20682,7 +20764,7 @@
         <v>850</v>
       </c>
       <c r="B2549" s="3" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="C2549">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/850/1.png", 2)</f>
@@ -20702,7 +20784,7 @@
         <v>851</v>
       </c>
       <c r="B2552" s="3" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="C2552">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/851/1.png", 2)</f>
@@ -20722,7 +20804,7 @@
         <v>852</v>
       </c>
       <c r="B2555" s="3" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="C2555">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/852/1.png", 2)</f>
@@ -20742,7 +20824,7 @@
         <v>853</v>
       </c>
       <c r="B2558" s="3" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="C2558">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/853/1.png", 2)</f>
@@ -20762,7 +20844,7 @@
         <v>854</v>
       </c>
       <c r="B2561" s="3" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="C2561">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/854/1.png", 2)</f>
@@ -20782,7 +20864,7 @@
         <v>855</v>
       </c>
       <c r="B2564" s="3" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="C2564">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/855/1.png", 2)</f>
@@ -20802,7 +20884,7 @@
         <v>856</v>
       </c>
       <c r="B2567" s="3" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="C2567">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/856/1.png", 2)</f>
@@ -20822,7 +20904,7 @@
         <v>857</v>
       </c>
       <c r="B2570" s="3" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="C2570">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/857/1.png", 2)</f>
@@ -20842,7 +20924,7 @@
         <v>858</v>
       </c>
       <c r="B2573" s="3" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="C2573">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/858/1.png", 2)</f>
@@ -20862,7 +20944,7 @@
         <v>859</v>
       </c>
       <c r="B2576" s="3" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="C2576">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/859/1.png", 2)</f>
@@ -20882,7 +20964,7 @@
         <v>860</v>
       </c>
       <c r="B2579" s="3" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="C2579">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/860/1.png", 2)</f>
@@ -20902,7 +20984,7 @@
         <v>861</v>
       </c>
       <c r="B2582" s="3" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="C2582">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/861/1.png", 2)</f>
@@ -20922,7 +21004,7 @@
         <v>862</v>
       </c>
       <c r="B2585" s="3" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="C2585">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/862/1.png", 2)</f>
@@ -20942,7 +21024,7 @@
         <v>863</v>
       </c>
       <c r="B2588" s="3" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C2588">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/863/1.png", 2)</f>
@@ -20962,7 +21044,7 @@
         <v>864</v>
       </c>
       <c r="B2591" s="3" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="C2591">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/864/1.png", 2)</f>
@@ -20982,7 +21064,7 @@
         <v>865</v>
       </c>
       <c r="B2594" s="3" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C2594">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/865/1.png", 2)</f>
@@ -21002,7 +21084,7 @@
         <v>866</v>
       </c>
       <c r="B2597" s="3" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C2597">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/866/1.png", 2)</f>
@@ -21022,7 +21104,7 @@
         <v>867</v>
       </c>
       <c r="B2600" s="3" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="C2600">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/867/1.png", 2)</f>
@@ -21042,7 +21124,7 @@
         <v>868</v>
       </c>
       <c r="B2603" s="3" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="C2603">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/868/1.png", 2)</f>
@@ -21062,7 +21144,7 @@
         <v>869</v>
       </c>
       <c r="B2606" s="3" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="C2606">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/869/1.png", 2)</f>
@@ -21082,7 +21164,7 @@
         <v>870</v>
       </c>
       <c r="B2609" s="3" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="C2609">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/870/1.png", 2)</f>
@@ -21102,7 +21184,7 @@
         <v>871</v>
       </c>
       <c r="B2612" s="3" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C2612">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/871/1.png", 2)</f>
@@ -21122,7 +21204,7 @@
         <v>872</v>
       </c>
       <c r="B2615" s="3" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="C2615">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/872/1.png", 2)</f>
@@ -21142,7 +21224,7 @@
         <v>873</v>
       </c>
       <c r="B2618" s="3" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C2618">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/873/1.png", 2)</f>
@@ -21162,7 +21244,7 @@
         <v>874</v>
       </c>
       <c r="B2621" s="3" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C2621">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/874/1.png", 2)</f>
@@ -21182,7 +21264,7 @@
         <v>875</v>
       </c>
       <c r="B2624" s="3" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="C2624">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/875/1.png", 2)</f>
@@ -21202,7 +21284,7 @@
         <v>876</v>
       </c>
       <c r="B2627" s="3" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="C2627">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/876/1.png", 2)</f>
@@ -21222,7 +21304,7 @@
         <v>877</v>
       </c>
       <c r="B2630" s="3" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="C2630">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/877/1.png", 2)</f>
@@ -21242,7 +21324,7 @@
         <v>878</v>
       </c>
       <c r="B2633" s="3" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="C2633">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/878/1.png", 2)</f>
@@ -21262,7 +21344,7 @@
         <v>879</v>
       </c>
       <c r="B2636" s="3" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="C2636">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/879/1.png", 2)</f>
@@ -21282,7 +21364,7 @@
         <v>880</v>
       </c>
       <c r="B2639" s="3" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="C2639">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/880/1.png", 2)</f>
@@ -21302,7 +21384,7 @@
         <v>881</v>
       </c>
       <c r="B2642" s="3" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="C2642">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/881/1.png", 2)</f>
@@ -21322,7 +21404,7 @@
         <v>882</v>
       </c>
       <c r="B2645" s="3" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="C2645">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/882/1.png", 2)</f>
@@ -21342,7 +21424,7 @@
         <v>883</v>
       </c>
       <c r="B2648" s="3" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="C2648">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/883/1.png", 2)</f>
@@ -21362,7 +21444,7 @@
         <v>884</v>
       </c>
       <c r="B2651" s="3" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="C2651">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/884/1.png", 2)</f>
@@ -21382,7 +21464,7 @@
         <v>885</v>
       </c>
       <c r="B2654" s="3" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="C2654">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/885/1.png", 2)</f>
@@ -21402,7 +21484,7 @@
         <v>886</v>
       </c>
       <c r="B2657" s="3" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="C2657">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/886/1.png", 2)</f>
@@ -21422,7 +21504,7 @@
         <v>887</v>
       </c>
       <c r="B2660" s="3" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="C2660">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/887/1.png", 2)</f>
@@ -21442,7 +21524,7 @@
         <v>888</v>
       </c>
       <c r="B2663" s="3" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="C2663">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/888/1.png", 2)</f>
@@ -21462,7 +21544,7 @@
         <v>889</v>
       </c>
       <c r="B2666" s="3" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="C2666">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/889/1.png", 2)</f>
@@ -21482,7 +21564,7 @@
         <v>890</v>
       </c>
       <c r="B2669" s="3" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="C2669">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/890/1.png", 2)</f>
@@ -21502,7 +21584,7 @@
         <v>891</v>
       </c>
       <c r="B2672" s="3" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="C2672">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/891/1.png", 2)</f>
@@ -21522,7 +21604,7 @@
         <v>892</v>
       </c>
       <c r="B2675" s="3" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="C2675">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/892/1.png", 2)</f>
@@ -21542,7 +21624,7 @@
         <v>893</v>
       </c>
       <c r="B2678" s="3" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="C2678">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/893/1.png", 2)</f>
@@ -21562,7 +21644,7 @@
         <v>894</v>
       </c>
       <c r="B2681" s="3" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="C2681">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/894/1.png", 2)</f>
@@ -21582,7 +21664,7 @@
         <v>895</v>
       </c>
       <c r="B2684" s="3" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="C2684">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/895/1.png", 2)</f>
@@ -21602,7 +21684,7 @@
         <v>896</v>
       </c>
       <c r="B2687" s="3" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="C2687">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/896/1.png", 2)</f>
@@ -21622,7 +21704,7 @@
         <v>897</v>
       </c>
       <c r="B2690" s="3" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="C2690">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/897/1.png", 2)</f>
@@ -21642,7 +21724,7 @@
         <v>898</v>
       </c>
       <c r="B2693" s="3" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="C2693">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/898/1.png", 2)</f>
@@ -21662,7 +21744,7 @@
         <v>899</v>
       </c>
       <c r="B2696" s="3" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="C2696">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/899/1.png", 2)</f>
@@ -21682,7 +21764,7 @@
         <v>900</v>
       </c>
       <c r="B2699" s="3" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="C2699">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/900/1.png", 2)</f>
@@ -21702,7 +21784,7 @@
         <v>901</v>
       </c>
       <c r="B2702" s="3" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="C2702">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/901/1.png", 2)</f>
@@ -21722,7 +21804,7 @@
         <v>902</v>
       </c>
       <c r="B2705" s="3" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="C2705">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/902/1.png", 2)</f>
@@ -21742,7 +21824,7 @@
         <v>903</v>
       </c>
       <c r="B2708" s="3" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="C2708">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/903/1.png", 2)</f>
@@ -21762,7 +21844,7 @@
         <v>904</v>
       </c>
       <c r="B2711" s="3" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="C2711">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/904/1.png", 2)</f>
@@ -21782,7 +21864,7 @@
         <v>905</v>
       </c>
       <c r="B2714" s="3" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="C2714">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/905/1.png", 2)</f>
@@ -21802,7 +21884,7 @@
         <v>906</v>
       </c>
       <c r="B2717" s="3" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="C2717">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/906/1.png", 2)</f>
@@ -21822,7 +21904,7 @@
         <v>907</v>
       </c>
       <c r="B2720" s="3" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="C2720">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/907/1.png", 2)</f>
@@ -21842,7 +21924,7 @@
         <v>908</v>
       </c>
       <c r="B2723" s="3" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="C2723">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/908/1.png", 2)</f>
@@ -21862,7 +21944,7 @@
         <v>909</v>
       </c>
       <c r="B2726" s="3" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="C2726">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/909/1.png", 2)</f>
@@ -21882,7 +21964,7 @@
         <v>910</v>
       </c>
       <c r="B2729" s="3" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="C2729">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/910/1.png", 2)</f>
@@ -21902,7 +21984,7 @@
         <v>911</v>
       </c>
       <c r="B2732" s="3" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="C2732">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/911/1.png", 2)</f>
@@ -21922,7 +22004,7 @@
         <v>912</v>
       </c>
       <c r="B2735" s="3" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="C2735">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/912/1.png", 2)</f>
@@ -21942,7 +22024,7 @@
         <v>913</v>
       </c>
       <c r="B2738" s="3" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="C2738">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/913/1.png", 2)</f>
@@ -21962,7 +22044,7 @@
         <v>914</v>
       </c>
       <c r="B2741" s="3" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="C2741">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/914/1.png", 2)</f>
@@ -21982,7 +22064,7 @@
         <v>915</v>
       </c>
       <c r="B2744" s="3" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="C2744">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/915/1.png", 2)</f>
@@ -22002,7 +22084,7 @@
         <v>916</v>
       </c>
       <c r="B2747" s="3" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="C2747">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/916/1.png", 2)</f>
@@ -22022,7 +22104,7 @@
         <v>917</v>
       </c>
       <c r="B2750" s="3" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="C2750">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/917/1.png", 2)</f>
@@ -22042,7 +22124,7 @@
         <v>918</v>
       </c>
       <c r="B2753" s="3" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="C2753">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/918/1.png", 2)</f>
@@ -22062,7 +22144,7 @@
         <v>919</v>
       </c>
       <c r="B2756" s="3" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="C2756">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/919/1.png", 2)</f>
@@ -22082,7 +22164,7 @@
         <v>920</v>
       </c>
       <c r="B2759" s="3" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="C2759">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/920/1.png", 2)</f>
@@ -22102,7 +22184,7 @@
         <v>921</v>
       </c>
       <c r="B2762" s="3" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="C2762">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/921/1.png", 2)</f>
@@ -22122,7 +22204,7 @@
         <v>922</v>
       </c>
       <c r="B2765" s="3" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="C2765">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/922/1.png", 2)</f>
@@ -22142,7 +22224,7 @@
         <v>923</v>
       </c>
       <c r="B2768" s="3" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="C2768">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/923/1.png", 2)</f>
@@ -22162,7 +22244,7 @@
         <v>924</v>
       </c>
       <c r="B2771" s="3" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="C2771">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/924/1.png", 2)</f>
@@ -22182,7 +22264,7 @@
         <v>925</v>
       </c>
       <c r="B2774" s="3" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="C2774">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/925/1.png", 2)</f>
@@ -22202,7 +22284,7 @@
         <v>926</v>
       </c>
       <c r="B2777" s="3" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="C2777">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/926/1.png", 2)</f>
@@ -22222,7 +22304,7 @@
         <v>927</v>
       </c>
       <c r="B2780" s="3" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="C2780">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/927/1.png", 2)</f>
@@ -22242,7 +22324,7 @@
         <v>928</v>
       </c>
       <c r="B2783" s="3" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="C2783">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/928/1.png", 2)</f>
@@ -22262,7 +22344,7 @@
         <v>929</v>
       </c>
       <c r="B2786" s="3" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="C2786">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/929/1.png", 2)</f>
@@ -22282,7 +22364,7 @@
         <v>930</v>
       </c>
       <c r="B2789" s="3" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="C2789">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/930/1.png", 2)</f>
@@ -22302,7 +22384,7 @@
         <v>931</v>
       </c>
       <c r="B2792" s="3" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="C2792">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/931/1.png", 2)</f>
@@ -22322,7 +22404,7 @@
         <v>932</v>
       </c>
       <c r="B2795" s="3" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="C2795">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/932/1.png", 2)</f>
@@ -22342,7 +22424,7 @@
         <v>933</v>
       </c>
       <c r="B2798" s="3" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="C2798">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/933/1.png", 2)</f>
@@ -22362,7 +22444,7 @@
         <v>934</v>
       </c>
       <c r="B2801" s="3" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="C2801">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/934/1.png", 2)</f>
@@ -22382,7 +22464,7 @@
         <v>935</v>
       </c>
       <c r="B2804" s="3" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="C2804">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/935/1.png", 2)</f>
@@ -22402,7 +22484,7 @@
         <v>936</v>
       </c>
       <c r="B2807" s="3" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="C2807">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/936/1.png", 2)</f>
@@ -22422,19 +22504,26 @@
         <v>937</v>
       </c>
       <c r="B2810" s="3" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="C2810">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/937/1.png", 2)</f>
         <v>0</v>
       </c>
+      <c r="D2810">
+        <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/937/2.png", 2)</f>
+        <v>0</v>
+      </c>
       <c r="G2810" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2811" spans="1:7">
       <c r="C2811" s="4" t="s">
-        <v>20</v>
+        <v>966</v>
+      </c>
+      <c r="D2811" s="4" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="2813" spans="1:7" ht="264" customHeight="1">
@@ -22442,7 +22531,7 @@
         <v>938</v>
       </c>
       <c r="B2813" s="3" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="C2813">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/938/1.png", 2)</f>
@@ -22462,7 +22551,7 @@
         <v>939</v>
       </c>
       <c r="B2816" s="3" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="C2816">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/939/1.png", 2)</f>
@@ -22482,7 +22571,7 @@
         <v>940</v>
       </c>
       <c r="B2819" s="3" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="C2819">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/940/1.png", 2)</f>
@@ -22502,7 +22591,7 @@
         <v>941</v>
       </c>
       <c r="B2822" s="3" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="C2822">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/941/1.png", 2)</f>
@@ -22522,7 +22611,7 @@
         <v>942</v>
       </c>
       <c r="B2825" s="3" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="C2825">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/942/1.png", 2)</f>
@@ -22542,7 +22631,7 @@
         <v>943</v>
       </c>
       <c r="B2828" s="3" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="C2828">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/943/1.png", 2)</f>
@@ -22562,7 +22651,7 @@
         <v>944</v>
       </c>
       <c r="B2831" s="3" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="C2831">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/944/1.png", 2)</f>
@@ -22582,7 +22671,7 @@
         <v>945</v>
       </c>
       <c r="B2834" s="3" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="C2834">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/945/1.png", 2)</f>
@@ -22602,7 +22691,7 @@
         <v>946</v>
       </c>
       <c r="B2837" s="3" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="C2837">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/946/1.png", 2)</f>
@@ -22622,7 +22711,7 @@
         <v>947</v>
       </c>
       <c r="B2840" s="3" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="C2840">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/947/1.png", 2)</f>
@@ -22642,7 +22731,7 @@
         <v>948</v>
       </c>
       <c r="B2843" s="3" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="C2843">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/948/1.png", 2)</f>
@@ -22662,7 +22751,7 @@
         <v>949</v>
       </c>
       <c r="B2846" s="3" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="C2846">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/949/1.png", 2)</f>
@@ -22682,7 +22771,7 @@
         <v>950</v>
       </c>
       <c r="B2849" s="3" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="C2849">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/950/1.png", 2)</f>
@@ -22702,7 +22791,7 @@
         <v>951</v>
       </c>
       <c r="B2852" s="3" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="C2852">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/951/1.png", 2)</f>
@@ -22722,7 +22811,7 @@
         <v>952</v>
       </c>
       <c r="B2855" s="3" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="C2855">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/952/1.png", 2)</f>
@@ -22742,7 +22831,7 @@
         <v>953</v>
       </c>
       <c r="B2858" s="3" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="C2858">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/953/1.png", 2)</f>
@@ -22762,7 +22851,7 @@
         <v>954</v>
       </c>
       <c r="B2861" s="3" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="C2861">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/954/1.png", 2)</f>
@@ -22782,7 +22871,7 @@
         <v>955</v>
       </c>
       <c r="B2864" s="3" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="C2864">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/955/1.png", 2)</f>
@@ -22802,7 +22891,7 @@
         <v>956</v>
       </c>
       <c r="B2867" s="3" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="C2867">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/956/1.png", 2)</f>
@@ -22822,7 +22911,7 @@
         <v>957</v>
       </c>
       <c r="B2870" s="3" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="C2870">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/957/1.png", 2)</f>
@@ -22842,7 +22931,7 @@
         <v>958</v>
       </c>
       <c r="B2873" s="3" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
       <c r="C2873">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/958/1.png", 2)</f>
@@ -22862,7 +22951,7 @@
         <v>959</v>
       </c>
       <c r="B2876" s="3" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="C2876">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/959/1.png", 2)</f>
@@ -22882,7 +22971,7 @@
         <v>960</v>
       </c>
       <c r="B2879" s="3" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="C2879">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/960/1.png", 2)</f>
@@ -22902,7 +22991,7 @@
         <v>961</v>
       </c>
       <c r="B2882" s="3" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="C2882">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/961/1.png", 2)</f>
@@ -22922,7 +23011,7 @@
         <v>962</v>
       </c>
       <c r="B2885" s="3" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="C2885">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/962/1.png", 2)</f>
@@ -22942,7 +23031,7 @@
         <v>963</v>
       </c>
       <c r="B2888" s="3" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="C2888">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/963/1.png", 2)</f>
@@ -22962,7 +23051,7 @@
         <v>964</v>
       </c>
       <c r="B2891" s="3" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="C2891">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/964/1.png", 2)</f>
@@ -22982,7 +23071,7 @@
         <v>965</v>
       </c>
       <c r="B2894" s="3" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="C2894">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/965/1.png", 2)</f>
@@ -23002,7 +23091,7 @@
         <v>966</v>
       </c>
       <c r="B2897" s="3" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="C2897">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/966/1.png", 2)</f>
@@ -23022,7 +23111,7 @@
         <v>967</v>
       </c>
       <c r="B2900" s="3" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="C2900">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/967/1.png", 2)</f>
@@ -23042,7 +23131,7 @@
         <v>968</v>
       </c>
       <c r="B2903" s="3" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="C2903">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/968/1.png", 2)</f>
@@ -23062,7 +23151,7 @@
         <v>969</v>
       </c>
       <c r="B2906" s="3" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="C2906">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/969/1.png", 2)</f>
@@ -23082,7 +23171,7 @@
         <v>970</v>
       </c>
       <c r="B2909" s="3" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="C2909">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/970/1.png", 2)</f>
@@ -23102,7 +23191,7 @@
         <v>971</v>
       </c>
       <c r="B2912" s="3" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="C2912">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/971/1.png", 2)</f>
@@ -23122,7 +23211,7 @@
         <v>972</v>
       </c>
       <c r="B2915" s="3" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
       <c r="C2915">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/972/1.png", 2)</f>
@@ -23142,7 +23231,7 @@
         <v>973</v>
       </c>
       <c r="B2918" s="3" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="C2918">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/973/1.png", 2)</f>
@@ -23162,7 +23251,7 @@
         <v>974</v>
       </c>
       <c r="B2921" s="3" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="C2921">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/974/1.png", 2)</f>
@@ -23182,7 +23271,7 @@
         <v>975</v>
       </c>
       <c r="B2924" s="3" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="C2924">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/975/1.png", 2)</f>
@@ -23202,7 +23291,7 @@
         <v>976</v>
       </c>
       <c r="B2927" s="3" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="C2927">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/976/1.png", 2)</f>
@@ -23222,7 +23311,7 @@
         <v>977</v>
       </c>
       <c r="B2930" s="3" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="C2930">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/977/1.png", 2)</f>
@@ -23242,7 +23331,7 @@
         <v>978</v>
       </c>
       <c r="B2933" s="3" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="C2933">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/978/1.png", 2)</f>
@@ -23262,7 +23351,7 @@
         <v>979</v>
       </c>
       <c r="B2936" s="3" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="C2936">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/979/1.png", 2)</f>
@@ -23282,7 +23371,7 @@
         <v>980</v>
       </c>
       <c r="B2939" s="3" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="C2939">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/980/1.png", 2)</f>
@@ -23302,7 +23391,7 @@
         <v>981</v>
       </c>
       <c r="B2942" s="3" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="C2942">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/981/1.png", 2)</f>
@@ -23322,7 +23411,7 @@
         <v>982</v>
       </c>
       <c r="B2945" s="3" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="C2945">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/982/1.png", 2)</f>
@@ -23342,7 +23431,7 @@
         <v>983</v>
       </c>
       <c r="B2948" s="3" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="C2948">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/983/1.png", 2)</f>
@@ -23362,7 +23451,7 @@
         <v>984</v>
       </c>
       <c r="B2951" s="3" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="C2951">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/984/1.png", 2)</f>
@@ -23382,7 +23471,7 @@
         <v>985</v>
       </c>
       <c r="B2954" s="3" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="C2954">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/985/1.png", 2)</f>
@@ -23402,7 +23491,7 @@
         <v>986</v>
       </c>
       <c r="B2957" s="3" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="C2957">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/986/1.png", 2)</f>
@@ -23422,7 +23511,7 @@
         <v>987</v>
       </c>
       <c r="B2960" s="3" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="C2960">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/987/1.png", 2)</f>
@@ -23442,7 +23531,7 @@
         <v>988</v>
       </c>
       <c r="B2963" s="3" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="C2963">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/988/1.png", 2)</f>
@@ -23462,7 +23551,7 @@
         <v>989</v>
       </c>
       <c r="B2966" s="3" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="C2966">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/989/1.png", 2)</f>
@@ -23482,7 +23571,7 @@
         <v>990</v>
       </c>
       <c r="B2969" s="3" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="C2969">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/990/1.png", 2)</f>
@@ -23502,7 +23591,7 @@
         <v>991</v>
       </c>
       <c r="B2972" s="3" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="C2972">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/991/1.png", 2)</f>
@@ -23522,7 +23611,7 @@
         <v>992</v>
       </c>
       <c r="B2975" s="3" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="C2975">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/992/1.png", 2)</f>
@@ -23542,7 +23631,7 @@
         <v>993</v>
       </c>
       <c r="B2978" s="3" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="C2978">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/993/1.png", 2)</f>
@@ -23562,7 +23651,7 @@
         <v>994</v>
       </c>
       <c r="B2981" s="3" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="C2981">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/994/1.png", 2)</f>
@@ -23582,7 +23671,7 @@
         <v>995</v>
       </c>
       <c r="B2984" s="3" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="C2984">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/995/1.png", 2)</f>
@@ -23602,7 +23691,7 @@
         <v>996</v>
       </c>
       <c r="B2987" s="3" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="C2987">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/996/1.png", 2)</f>
@@ -23622,7 +23711,7 @@
         <v>997</v>
       </c>
       <c r="B2990" s="3" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="C2990">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/997/1.png", 2)</f>
@@ -23642,7 +23731,7 @@
         <v>998</v>
       </c>
       <c r="B2993" s="3" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="C2993">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/998/1.png", 2)</f>
@@ -23662,7 +23751,7 @@
         <v>999</v>
       </c>
       <c r="B2996" s="3" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="C2996">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/999/1.png", 2)</f>
@@ -23682,7 +23771,7 @@
         <v>1000</v>
       </c>
       <c r="B2999" s="3" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="C2999">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1000/1.png", 2)</f>
@@ -23702,7 +23791,7 @@
         <v>1001</v>
       </c>
       <c r="B3002" s="3" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="C3002">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1001/1.png", 2)</f>
@@ -23722,7 +23811,7 @@
         <v>1002</v>
       </c>
       <c r="B3005" s="3" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="C3005">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1002/1.png", 2)</f>
@@ -23742,7 +23831,7 @@
         <v>1003</v>
       </c>
       <c r="B3008" s="3" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="C3008">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1003/1.png", 2)</f>
@@ -23762,7 +23851,7 @@
         <v>1004</v>
       </c>
       <c r="B3011" s="3" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="C3011">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1004/1.png", 2)</f>
@@ -23782,7 +23871,7 @@
         <v>1005</v>
       </c>
       <c r="B3014" s="3" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="C3014">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1005/1.png", 2)</f>
@@ -23802,7 +23891,7 @@
         <v>1006</v>
       </c>
       <c r="B3017" s="3" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="C3017">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1006/1.png", 2)</f>
@@ -23822,7 +23911,7 @@
         <v>1007</v>
       </c>
       <c r="B3020" s="3" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="C3020">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1007/1.png", 2)</f>
@@ -23842,7 +23931,7 @@
         <v>1008</v>
       </c>
       <c r="B3023" s="3" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="C3023">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1008/1.png", 2)</f>
@@ -23862,7 +23951,7 @@
         <v>1009</v>
       </c>
       <c r="B3026" s="3" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="C3026">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1009/1.png", 2)</f>
@@ -23882,7 +23971,7 @@
         <v>1010</v>
       </c>
       <c r="B3029" s="3" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="C3029">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1010/1.png", 2)</f>
@@ -23902,7 +23991,7 @@
         <v>1011</v>
       </c>
       <c r="B3032" s="3" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="C3032">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1011/1.png", 2)</f>
@@ -23922,7 +24011,7 @@
         <v>1012</v>
       </c>
       <c r="B3035" s="3" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="C3035">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1012/1.png", 2)</f>
@@ -23942,7 +24031,7 @@
         <v>1013</v>
       </c>
       <c r="B3038" s="3" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="C3038">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1013/1.png", 2)</f>
@@ -23962,7 +24051,7 @@
         <v>1014</v>
       </c>
       <c r="B3041" s="3" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="C3041">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1014/1.png", 2)</f>
@@ -23982,7 +24071,7 @@
         <v>1015</v>
       </c>
       <c r="B3044" s="3" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="C3044">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1015/1.png", 2)</f>
@@ -24002,7 +24091,7 @@
         <v>1016</v>
       </c>
       <c r="B3047" s="3" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="C3047">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1016/1.png", 2)</f>
@@ -24022,7 +24111,7 @@
         <v>1017</v>
       </c>
       <c r="B3050" s="3" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="C3050">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1017/1.png", 2)</f>
@@ -24042,7 +24131,7 @@
         <v>1018</v>
       </c>
       <c r="B3053" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="C3053">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1018/1.png", 2)</f>
@@ -24062,7 +24151,7 @@
         <v>1019</v>
       </c>
       <c r="B3056" s="3" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="C3056">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1019/1.png", 2)</f>
@@ -24082,7 +24171,7 @@
         <v>1020</v>
       </c>
       <c r="B3059" s="3" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="C3059">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1020/1.png", 2)</f>
@@ -24102,7 +24191,7 @@
         <v>1021</v>
       </c>
       <c r="B3062" s="3" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="C3062">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1021/1.png", 2)</f>
@@ -24122,7 +24211,7 @@
         <v>1022</v>
       </c>
       <c r="B3065" s="3" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="C3065">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1022/1.png", 2)</f>
@@ -24142,7 +24231,7 @@
         <v>1023</v>
       </c>
       <c r="B3068" s="3" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="C3068">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1023/1.png", 2)</f>
@@ -24162,7 +24251,7 @@
         <v>1024</v>
       </c>
       <c r="B3071" s="3" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="C3071">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1024/1.png", 2)</f>
@@ -24182,7 +24271,7 @@
         <v>1025</v>
       </c>
       <c r="B3074" s="3" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="C3074">
         <f>IMAGE("https://raw.githubusercontent.com/stautonico/tcg-livingdex/main/images/1025/1.png", 2)</f>
